--- a/Data/Evo_lines_dates.xlsx
+++ b/Data/Evo_lines_dates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meaghan\Documents\4th Year\Research project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB934F20-E206-49A7-AC04-3DBE9CF45B49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coms" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -379,7 +380,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -598,11 +599,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -628,11 +655,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,20 +980,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +1012,11 @@
       <c r="G1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -998,8 +1035,11 @@
       <c r="G2" s="3">
         <v>43299</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1018,8 +1058,11 @@
       <c r="G3" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1038,8 +1081,11 @@
       <c r="G4" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1104,11 @@
       <c r="G5" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1127,11 @@
       <c r="G6" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1098,8 +1150,11 @@
       <c r="G7" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1118,8 +1173,11 @@
       <c r="G8" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1196,11 @@
       <c r="G9" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1219,11 @@
       <c r="G10" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1178,8 +1242,11 @@
       <c r="G11" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1198,8 +1265,11 @@
       <c r="G12" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1218,8 +1288,11 @@
       <c r="G13" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1238,8 +1311,11 @@
       <c r="G14" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1258,8 +1334,11 @@
       <c r="G15" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1278,8 +1357,11 @@
       <c r="G16" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1298,8 +1380,11 @@
       <c r="G17" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1318,8 +1403,11 @@
       <c r="G18" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1426,11 @@
       <c r="G19" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1358,8 +1449,11 @@
       <c r="G20" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1378,8 +1472,11 @@
       <c r="G21" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1398,8 +1495,11 @@
       <c r="G22" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1518,11 @@
       <c r="G23" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1438,8 +1541,11 @@
       <c r="G24" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="28">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1457,6 +1563,9 @@
       </c>
       <c r="G25" s="4">
         <v>43299</v>
+      </c>
+      <c r="H25" s="28">
+        <v>43306</v>
       </c>
     </row>
   </sheetData>
@@ -1465,17 +1574,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1491,13 +1600,13 @@
       <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I1" t="s">
@@ -1527,17 +1636,16 @@
         <v>43278</v>
       </c>
       <c r="C2" s="4">
-        <v>43299</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43285</v>
-      </c>
-      <c r="F2" s="3">
-        <v>43292</v>
-      </c>
-      <c r="G2" s="3">
-        <v>43299</v>
-      </c>
+        <v>43369</v>
+      </c>
+      <c r="E2" s="32">
+        <v>43285</v>
+      </c>
+      <c r="F2" s="24">
+        <v>43313</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1547,17 +1655,16 @@
         <v>43278</v>
       </c>
       <c r="C3" s="4">
-        <v>43348</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43299</v>
-      </c>
+        <v>43369</v>
+      </c>
+      <c r="E3" s="23">
+        <v>43285</v>
+      </c>
+      <c r="F3" s="24">
+        <v>43313</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1567,17 +1674,16 @@
         <v>43278</v>
       </c>
       <c r="C4" s="4">
-        <v>43348</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F4" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G4" s="4">
-        <v>43299</v>
-      </c>
+        <v>43369</v>
+      </c>
+      <c r="E4" s="23">
+        <v>43285</v>
+      </c>
+      <c r="F4" s="24">
+        <v>43313</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1587,17 +1693,16 @@
         <v>43278</v>
       </c>
       <c r="C5" s="4">
-        <v>43348</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G5" s="4">
-        <v>43299</v>
-      </c>
+        <v>43369</v>
+      </c>
+      <c r="E5" s="23">
+        <v>43285</v>
+      </c>
+      <c r="F5" s="24">
+        <v>43313</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1618,6 +1723,9 @@
       <c r="G6" s="4">
         <v>43299</v>
       </c>
+      <c r="H6" s="4">
+        <v>43306</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1638,6 +1746,9 @@
       <c r="G7" s="4">
         <v>43299</v>
       </c>
+      <c r="H7" s="4">
+        <v>43306</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1658,6 +1769,9 @@
       <c r="G8" s="4">
         <v>43299</v>
       </c>
+      <c r="H8" s="4">
+        <v>43306</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1678,6 +1792,9 @@
       <c r="G9" s="4">
         <v>43299</v>
       </c>
+      <c r="H9" s="4">
+        <v>43306</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1698,6 +1815,9 @@
       <c r="G10" s="4">
         <v>43299</v>
       </c>
+      <c r="H10" s="4">
+        <v>43306</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1718,6 +1838,9 @@
       <c r="G11" s="4">
         <v>43299</v>
       </c>
+      <c r="H11" s="4">
+        <v>43306</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1727,17 +1850,16 @@
         <v>43278</v>
       </c>
       <c r="C12" s="4">
-        <v>43348</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F12" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G12" s="4">
-        <v>43299</v>
-      </c>
+        <v>43369</v>
+      </c>
+      <c r="E12" s="23">
+        <v>43285</v>
+      </c>
+      <c r="F12" s="24">
+        <v>43313</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1758,9 +1880,12 @@
       <c r="G13" s="21">
         <v>43299</v>
       </c>
+      <c r="H13" s="21">
+        <v>43306</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="3">
@@ -1769,16 +1894,17 @@
       <c r="C14" s="3">
         <v>43362</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <v>43285</v>
       </c>
       <c r="F14" s="11">
         <v>43306</v>
       </c>
       <c r="G14" s="20"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="4">
@@ -1794,9 +1920,10 @@
         <v>43306</v>
       </c>
       <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4">
@@ -1812,9 +1939,10 @@
         <v>43306</v>
       </c>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="4">
@@ -1830,8 +1958,9 @@
         <v>43306</v>
       </c>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
@@ -1850,8 +1979,11 @@
       <c r="G18" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -1870,9 +2002,12 @@
       <c r="G19" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="H19" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="4">
@@ -1888,8 +2023,9 @@
         <v>43306</v>
       </c>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -1897,19 +2033,18 @@
         <v>43278</v>
       </c>
       <c r="C21" s="4">
-        <v>43348</v>
-      </c>
-      <c r="E21" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F21" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G21" s="4">
-        <v>43299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43369</v>
+      </c>
+      <c r="E21" s="22">
+        <v>43285</v>
+      </c>
+      <c r="F21" s="13">
+        <v>43313</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -1917,19 +2052,18 @@
         <v>43278</v>
       </c>
       <c r="C22" s="4">
-        <v>43348</v>
-      </c>
-      <c r="E22" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F22" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G22" s="4">
-        <v>43299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43369</v>
+      </c>
+      <c r="E22" s="22">
+        <v>43285</v>
+      </c>
+      <c r="F22" s="13">
+        <v>43313</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>48</v>
       </c>
@@ -1937,20 +2071,19 @@
         <v>43278</v>
       </c>
       <c r="C23" s="4">
-        <v>43348</v>
-      </c>
-      <c r="E23" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G23" s="4">
-        <v>43299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+        <v>43369</v>
+      </c>
+      <c r="E23" s="22">
+        <v>43285</v>
+      </c>
+      <c r="F23" s="13">
+        <v>43313</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="4">
@@ -1965,9 +2098,10 @@
       <c r="F24" s="24">
         <v>43306</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="30"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>50</v>
       </c>
@@ -1986,9 +2120,12 @@
       <c r="G25" s="21">
         <v>43299</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="H25" s="21">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="3">
@@ -1997,15 +2134,16 @@
       <c r="C26" s="3">
         <v>43362</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="27">
         <v>43285</v>
       </c>
       <c r="F26" s="11">
         <v>43306</v>
       </c>
       <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>62</v>
       </c>
@@ -2024,8 +2162,11 @@
       <c r="G27" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>63</v>
       </c>
@@ -2044,8 +2185,11 @@
       <c r="G28" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>64</v>
       </c>
@@ -2064,9 +2208,12 @@
       <c r="G29" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="H29" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="4">
@@ -2082,9 +2229,10 @@
         <v>43306</v>
       </c>
       <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4">
@@ -2100,8 +2248,9 @@
         <v>43306</v>
       </c>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>67</v>
       </c>
@@ -2120,9 +2269,12 @@
       <c r="G32" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="H32" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="4">
@@ -2138,8 +2290,9 @@
         <v>43306</v>
       </c>
       <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -2158,8 +2311,11 @@
       <c r="G34" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>70</v>
       </c>
@@ -2178,8 +2334,11 @@
       <c r="G35" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -2198,8 +2357,11 @@
       <c r="G36" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>72</v>
       </c>
@@ -2218,8 +2380,11 @@
       <c r="G37" s="21">
         <v>43299</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="21">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
@@ -2232,8 +2397,9 @@
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>74</v>
       </c>
@@ -2246,8 +2412,9 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>75</v>
       </c>
@@ -2260,8 +2427,9 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>76</v>
       </c>
@@ -2274,8 +2442,9 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>77</v>
       </c>
@@ -2288,8 +2457,9 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>78</v>
       </c>
@@ -2302,8 +2472,9 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>79</v>
       </c>
@@ -2316,8 +2487,9 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>80</v>
       </c>
@@ -2330,8 +2502,9 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>81</v>
       </c>
@@ -2344,8 +2517,9 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>82</v>
       </c>
@@ -2358,8 +2532,9 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>83</v>
       </c>
@@ -2372,8 +2547,9 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>84</v>
       </c>
@@ -2386,8 +2562,9 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
@@ -2406,8 +2583,11 @@
       <c r="G50" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -2426,8 +2606,11 @@
       <c r="G51" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -2446,8 +2629,11 @@
       <c r="G52" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
@@ -2460,10 +2646,13 @@
       <c r="E53" s="4">
         <v>43299</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="28">
+        <v>43306</v>
+      </c>
       <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -2482,8 +2671,11 @@
       <c r="G54" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
@@ -2496,11 +2688,14 @@
       <c r="E55" s="4">
         <v>43299</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="28">
+        <v>43306</v>
+      </c>
       <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B56" s="4">
@@ -2516,9 +2711,10 @@
         <v>43306</v>
       </c>
       <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="4">
@@ -2530,11 +2726,14 @@
       <c r="E57" s="4">
         <v>43299</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="28">
+        <v>43306</v>
+      </c>
       <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="4">
@@ -2552,9 +2751,12 @@
       <c r="G58" s="4">
         <v>43299</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="H58" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="4">
@@ -2570,9 +2772,10 @@
         <v>43306</v>
       </c>
       <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B60" s="4">
@@ -2588,24 +2791,26 @@
         <v>43306</v>
       </c>
       <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="4">
-        <v>43278</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="21">
+        <v>43278</v>
+      </c>
+      <c r="C61" s="21">
         <v>43362</v>
       </c>
-      <c r="E61" s="22">
-        <v>43285</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="E61" s="36">
+        <v>43285</v>
+      </c>
+      <c r="F61" s="35">
         <v>43306</v>
       </c>
       <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2613,11 +2818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Evo_lines_dates.xlsx
+++ b/Data/Evo_lines_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meaghan\Documents\4th Year\Research project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB934F20-E206-49A7-AC04-3DBE9CF45B49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35D88224-6AE6-443C-9FC9-6E97BC16CA7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sp" sheetId="2" r:id="rId2"/>
     <sheet name="Sp_extra" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -375,6 +375,30 @@
   </si>
   <si>
     <t>SR18</t>
+  </si>
+  <si>
+    <t>PC20</t>
+  </si>
+  <si>
+    <t>PC21</t>
+  </si>
+  <si>
+    <t>AA13</t>
+  </si>
+  <si>
+    <t>AA14</t>
+  </si>
+  <si>
+    <t>AA15</t>
+  </si>
+  <si>
+    <t>AA16</t>
+  </si>
+  <si>
+    <t>AA17</t>
+  </si>
+  <si>
+    <t>AA18</t>
   </si>
 </sst>
 </file>
@@ -390,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,12 +423,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -625,11 +655,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -655,18 +694,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,19 +1029,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,8 +1063,14 @@
       <c r="H1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1035,11 +1089,17 @@
       <c r="G2" s="3">
         <v>43299</v>
       </c>
-      <c r="H2" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>43306</v>
+      </c>
+      <c r="I2" s="3">
+        <v>43313</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1058,11 +1118,17 @@
       <c r="G3" s="4">
         <v>43299</v>
       </c>
-      <c r="H3" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I3" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1081,11 +1147,17 @@
       <c r="G4" s="4">
         <v>43299</v>
       </c>
-      <c r="H4" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1104,11 +1176,17 @@
       <c r="G5" s="4">
         <v>43299</v>
       </c>
-      <c r="H5" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I5" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1127,11 +1205,17 @@
       <c r="G6" s="4">
         <v>43299</v>
       </c>
-      <c r="H6" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I6" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1150,11 +1234,17 @@
       <c r="G7" s="4">
         <v>43299</v>
       </c>
-      <c r="H7" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I7" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J7" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1173,11 +1263,17 @@
       <c r="G8" s="4">
         <v>43299</v>
       </c>
-      <c r="H8" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I8" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1196,11 +1292,17 @@
       <c r="G9" s="4">
         <v>43299</v>
       </c>
-      <c r="H9" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I9" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J9" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1219,11 +1321,17 @@
       <c r="G10" s="4">
         <v>43299</v>
       </c>
-      <c r="H10" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I10" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1242,11 +1350,17 @@
       <c r="G11" s="4">
         <v>43299</v>
       </c>
-      <c r="H11" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I11" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J11" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1265,11 +1379,17 @@
       <c r="G12" s="4">
         <v>43299</v>
       </c>
-      <c r="H12" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I12" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J12" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1288,11 +1408,17 @@
       <c r="G13" s="4">
         <v>43299</v>
       </c>
-      <c r="H13" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I13" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J13" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1311,11 +1437,17 @@
       <c r="G14" s="4">
         <v>43299</v>
       </c>
-      <c r="H14" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I14" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J14" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1334,11 +1466,17 @@
       <c r="G15" s="4">
         <v>43299</v>
       </c>
-      <c r="H15" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I15" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J15" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1357,11 +1495,17 @@
       <c r="G16" s="4">
         <v>43299</v>
       </c>
-      <c r="H16" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I16" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J16" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1380,11 +1524,17 @@
       <c r="G17" s="4">
         <v>43299</v>
       </c>
-      <c r="H17" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I17" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J17" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1403,11 +1553,17 @@
       <c r="G18" s="4">
         <v>43299</v>
       </c>
-      <c r="H18" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I18" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J18" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1426,11 +1582,17 @@
       <c r="G19" s="4">
         <v>43299</v>
       </c>
-      <c r="H19" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I19" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J19" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1449,11 +1611,17 @@
       <c r="G20" s="4">
         <v>43299</v>
       </c>
-      <c r="H20" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I20" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J20" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1472,11 +1640,17 @@
       <c r="G21" s="4">
         <v>43299</v>
       </c>
-      <c r="H21" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I21" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J21" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1495,11 +1669,17 @@
       <c r="G22" s="4">
         <v>43299</v>
       </c>
-      <c r="H22" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I22" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J22" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1518,11 +1698,17 @@
       <c r="G23" s="4">
         <v>43299</v>
       </c>
-      <c r="H23" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I23" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J23" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1541,11 +1727,17 @@
       <c r="G24" s="4">
         <v>43299</v>
       </c>
-      <c r="H24" s="28">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="4">
+        <v>43306</v>
+      </c>
+      <c r="I24" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J24" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1555,17 +1747,23 @@
       <c r="C25" s="21">
         <v>43348</v>
       </c>
-      <c r="E25" s="4">
-        <v>43285</v>
-      </c>
-      <c r="F25" s="4">
-        <v>43292</v>
-      </c>
-      <c r="G25" s="4">
-        <v>43299</v>
-      </c>
-      <c r="H25" s="28">
-        <v>43306</v>
+      <c r="E25" s="21">
+        <v>43285</v>
+      </c>
+      <c r="F25" s="21">
+        <v>43292</v>
+      </c>
+      <c r="G25" s="21">
+        <v>43299</v>
+      </c>
+      <c r="H25" s="21">
+        <v>43306</v>
+      </c>
+      <c r="I25" s="21">
+        <v>43313</v>
+      </c>
+      <c r="J25" s="21">
+        <v>43320</v>
       </c>
     </row>
   </sheetData>
@@ -1578,13 +1776,13 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1638,14 +1836,18 @@
       <c r="C2" s="4">
         <v>43369</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="29">
         <v>43285</v>
       </c>
       <c r="F2" s="24">
         <v>43313</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="28">
+        <v>43320</v>
+      </c>
       <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1660,11 +1862,15 @@
       <c r="E3" s="23">
         <v>43285</v>
       </c>
-      <c r="F3" s="24">
-        <v>43313</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="44">
+        <v>43313</v>
+      </c>
+      <c r="G3" s="27">
+        <v>43320</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1682,8 +1888,12 @@
       <c r="F4" s="24">
         <v>43313</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="27">
+        <v>43320</v>
+      </c>
       <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1701,11 +1911,15 @@
       <c r="F5" s="24">
         <v>43313</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="27">
+        <v>43320</v>
+      </c>
       <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="4">
@@ -1726,9 +1940,11 @@
       <c r="H6" s="4">
         <v>43306</v>
       </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="4">
@@ -1749,9 +1965,11 @@
       <c r="H7" s="4">
         <v>43306</v>
       </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="4">
@@ -1772,9 +1990,11 @@
       <c r="H8" s="4">
         <v>43306</v>
       </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="4">
@@ -1795,9 +2015,11 @@
       <c r="H9" s="4">
         <v>43306</v>
       </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="4">
@@ -1818,9 +2040,11 @@
       <c r="H10" s="4">
         <v>43306</v>
       </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="4">
@@ -1841,6 +2065,8 @@
       <c r="H11" s="4">
         <v>43306</v>
       </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1858,8 +2084,12 @@
       <c r="F12" s="24">
         <v>43313</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="27">
+        <v>43320</v>
+      </c>
       <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1883,9 +2113,15 @@
       <c r="H13" s="21">
         <v>43306</v>
       </c>
+      <c r="I13" s="21">
+        <v>43313</v>
+      </c>
+      <c r="J13" s="27">
+        <v>43320</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="3">
@@ -1894,17 +2130,23 @@
       <c r="C14" s="3">
         <v>43362</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>43285</v>
       </c>
       <c r="F14" s="11">
         <v>43306</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="3">
+        <v>43313</v>
+      </c>
+      <c r="H14" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="4">
@@ -1919,11 +2161,15 @@
       <c r="F15" s="13">
         <v>43306</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4">
+        <v>43313</v>
+      </c>
       <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4">
@@ -1938,11 +2184,17 @@
       <c r="F16" s="13">
         <v>43306</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="G16" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H16" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="4">
@@ -1957,11 +2209,17 @@
       <c r="F17" s="13">
         <v>43306</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="G17" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H17" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="4">
@@ -1982,9 +2240,15 @@
       <c r="H18" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="I18" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J18" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="4">
@@ -2005,9 +2269,15 @@
       <c r="H19" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="I19" s="27">
+        <v>43313</v>
+      </c>
+      <c r="J19" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="4">
@@ -2022,10 +2292,16 @@
       <c r="F20" s="13">
         <v>43306</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H20" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -2041,10 +2317,16 @@
       <c r="F21" s="13">
         <v>43313</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H21" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -2060,10 +2342,16 @@
       <c r="F22" s="13">
         <v>43313</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H22" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>48</v>
       </c>
@@ -2079,11 +2367,17 @@
       <c r="F23" s="13">
         <v>43313</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="G23" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H23" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="4">
@@ -2098,10 +2392,16 @@
       <c r="F24" s="24">
         <v>43306</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="27">
+        <v>43313</v>
+      </c>
+      <c r="H24" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>50</v>
       </c>
@@ -2123,9 +2423,15 @@
       <c r="H25" s="21">
         <v>43306</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="I25" s="21">
+        <v>43313</v>
+      </c>
+      <c r="J25" s="21">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="3">
@@ -2134,17 +2440,23 @@
       <c r="C26" s="3">
         <v>43362</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <v>43285</v>
       </c>
       <c r="F26" s="11">
         <v>43306</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="G26" s="3">
+        <v>43313</v>
+      </c>
+      <c r="H26" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="4">
@@ -2165,9 +2477,15 @@
       <c r="H27" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="I27" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J27" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="4">
@@ -2188,9 +2506,15 @@
       <c r="H28" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="I28" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J28" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="4">
@@ -2211,9 +2535,15 @@
       <c r="H29" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="I29" s="27">
+        <v>43313</v>
+      </c>
+      <c r="J29" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="4">
@@ -2228,11 +2558,17 @@
       <c r="F30" s="13">
         <v>43306</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="G30" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H30" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4">
@@ -2247,11 +2583,17 @@
       <c r="F31" s="13">
         <v>43306</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="G31" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H31" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="4">
@@ -2272,9 +2614,15 @@
       <c r="H32" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="I32" s="27">
+        <v>43313</v>
+      </c>
+      <c r="J32" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="4">
@@ -2289,10 +2637,16 @@
       <c r="F33" s="13">
         <v>43306</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H33" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -2314,8 +2668,14 @@
       <c r="H34" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J34" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>70</v>
       </c>
@@ -2337,8 +2697,14 @@
       <c r="H35" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J35" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -2360,8 +2726,14 @@
       <c r="H36" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="27">
+        <v>43313</v>
+      </c>
+      <c r="J36" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>72</v>
       </c>
@@ -2383,8 +2755,14 @@
       <c r="H37" s="21">
         <v>43306</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="41">
+        <v>43313</v>
+      </c>
+      <c r="J37" s="21">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
@@ -2394,12 +2772,18 @@
       <c r="C38" s="3">
         <v>43376</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="3">
+        <v>43313</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43320</v>
+      </c>
       <c r="G38" s="20"/>
       <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>74</v>
       </c>
@@ -2409,12 +2793,18 @@
       <c r="C39" s="4">
         <v>43376</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43320</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>75</v>
       </c>
@@ -2424,12 +2814,18 @@
       <c r="C40" s="4">
         <v>43376</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43320</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>76</v>
       </c>
@@ -2439,12 +2835,18 @@
       <c r="C41" s="4">
         <v>43376</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43320</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>77</v>
       </c>
@@ -2454,12 +2856,18 @@
       <c r="C42" s="4">
         <v>43376</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F42" s="4">
+        <v>43320</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>78</v>
       </c>
@@ -2469,12 +2877,18 @@
       <c r="C43" s="4">
         <v>43376</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F43" s="4">
+        <v>43320</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>79</v>
       </c>
@@ -2484,12 +2898,18 @@
       <c r="C44" s="4">
         <v>43376</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F44" s="4">
+        <v>43320</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>80</v>
       </c>
@@ -2499,12 +2919,18 @@
       <c r="C45" s="4">
         <v>43376</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43320</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>81</v>
       </c>
@@ -2514,12 +2940,18 @@
       <c r="C46" s="4">
         <v>43376</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F46" s="4">
+        <v>43320</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>82</v>
       </c>
@@ -2529,12 +2961,18 @@
       <c r="C47" s="4">
         <v>43376</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F47" s="4">
+        <v>43320</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>83</v>
       </c>
@@ -2544,12 +2982,18 @@
       <c r="C48" s="4">
         <v>43376</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="4">
+        <v>43313</v>
+      </c>
+      <c r="F48" s="4">
+        <v>43320</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>84</v>
       </c>
@@ -2559,12 +3003,18 @@
       <c r="C49" s="21">
         <v>43376</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="21">
+        <v>43313</v>
+      </c>
+      <c r="F49" s="21">
+        <v>43320</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
@@ -2583,11 +3033,17 @@
       <c r="G50" s="4">
         <v>43299</v>
       </c>
-      <c r="H50" s="4">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="3">
+        <v>43306</v>
+      </c>
+      <c r="I50" s="3">
+        <v>43313</v>
+      </c>
+      <c r="J50" s="3">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -2609,9 +3065,15 @@
       <c r="H51" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="I51" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J51" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="4">
@@ -2632,8 +3094,12 @@
       <c r="H52" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="27">
+        <v>43313</v>
+      </c>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
@@ -2643,16 +3109,22 @@
       <c r="C53" s="4">
         <v>43362</v>
       </c>
-      <c r="E53" s="4">
-        <v>43299</v>
-      </c>
-      <c r="F53" s="28">
-        <v>43306</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E53" s="22">
+        <v>43299</v>
+      </c>
+      <c r="F53" s="26">
+        <v>43306</v>
+      </c>
+      <c r="G53" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H53" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -2674,8 +3146,14 @@
       <c r="H54" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J54" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
@@ -2685,36 +3163,45 @@
       <c r="C55" s="4">
         <v>43362</v>
       </c>
-      <c r="E55" s="4">
-        <v>43299</v>
-      </c>
-      <c r="F55" s="28">
-        <v>43306</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="E55" s="23">
+        <v>43299</v>
+      </c>
+      <c r="F55" s="24">
+        <v>43306</v>
+      </c>
+      <c r="G55" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H55" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="4">
-        <v>43278</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="36">
+        <v>43278</v>
+      </c>
+      <c r="C56" s="36">
         <v>43362</v>
       </c>
-      <c r="E56" s="22">
-        <v>43285</v>
-      </c>
-      <c r="F56" s="13">
-        <v>43306</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="D56" s="37"/>
+      <c r="E56" s="38">
+        <v>43285</v>
+      </c>
+      <c r="F56" s="39">
+        <v>43306</v>
+      </c>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="4">
@@ -2723,17 +3210,23 @@
       <c r="C57" s="4">
         <v>43362</v>
       </c>
-      <c r="E57" s="4">
-        <v>43299</v>
-      </c>
-      <c r="F57" s="28">
-        <v>43306</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="E57" s="22">
+        <v>43299</v>
+      </c>
+      <c r="F57" s="26">
+        <v>43306</v>
+      </c>
+      <c r="G57" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H57" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="4">
@@ -2754,9 +3247,15 @@
       <c r="H58" s="4">
         <v>43306</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="I58" s="4">
+        <v>43313</v>
+      </c>
+      <c r="J58" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="4">
@@ -2771,11 +3270,17 @@
       <c r="F59" s="13">
         <v>43306</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="G59" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H59" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B60" s="4">
@@ -2790,11 +3295,17 @@
       <c r="F60" s="13">
         <v>43306</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34" t="s">
+      <c r="G60" s="4">
+        <v>43313</v>
+      </c>
+      <c r="H60" s="4">
+        <v>43320</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="21">
@@ -2803,14 +3314,20 @@
       <c r="C61" s="21">
         <v>43362</v>
       </c>
-      <c r="E61" s="36">
-        <v>43285</v>
-      </c>
-      <c r="F61" s="35">
-        <v>43306</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="E61" s="33">
+        <v>43285</v>
+      </c>
+      <c r="F61" s="32">
+        <v>43306</v>
+      </c>
+      <c r="G61" s="21">
+        <v>43313</v>
+      </c>
+      <c r="H61" s="21">
+        <v>43320</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2819,18 +3336,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
@@ -2851,8 +3368,9 @@
       <c r="C2" s="11">
         <v>43376</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>98</v>
       </c>
@@ -2863,7 +3381,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>99</v>
       </c>
@@ -2874,7 +3392,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>100</v>
       </c>
@@ -2885,7 +3403,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>101</v>
       </c>
@@ -2896,7 +3414,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
@@ -2907,53 +3425,53 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="15">
-        <v>43306</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C8" s="13">
         <v>43376</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C9" s="13">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="15">
+        <v>43306</v>
+      </c>
+      <c r="C10" s="16">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="10">
-        <v>43306</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B11" s="10">
+        <v>43306</v>
+      </c>
+      <c r="C11" s="11">
         <v>43376</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43306</v>
-      </c>
-      <c r="C10" s="13">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43306</v>
-      </c>
-      <c r="C11" s="13">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="B12" s="2">
         <v>43306</v>
@@ -2962,9 +3480,9 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2">
         <v>43306</v>
@@ -2973,53 +3491,53 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="15">
-        <v>43306</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B16" s="15">
+        <v>43306</v>
+      </c>
+      <c r="C16" s="16">
         <v>43376</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="10">
-        <v>43306</v>
-      </c>
-      <c r="C15" s="11">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43306</v>
-      </c>
-      <c r="C16" s="13">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43306</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="10">
+        <v>43306</v>
+      </c>
+      <c r="C17" s="11">
         <v>43376</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2">
         <v>43306</v>
@@ -3030,7 +3548,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2">
         <v>43306</v>
@@ -3039,15 +3557,103 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="15">
-        <v>43306</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B22" s="15">
+        <v>43306</v>
+      </c>
+      <c r="C22" s="16">
         <v>43376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="10">
+        <v>43313</v>
+      </c>
+      <c r="C23" s="11">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C25" s="13">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C27" s="13">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43313</v>
+      </c>
+      <c r="C28" s="16">
+        <v>43383</v>
       </c>
     </row>
   </sheetData>
